--- a/上海病例数-宏观.xlsx
+++ b/上海病例数-宏观.xlsx
@@ -5,23 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/starpress/Workspace/WorkSpace/Shanghai_COVID_2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/starpress/Workspace/WorkSpace/Github/Shanghai-COVID-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6513C8-D3E2-0E40-A083-28CE7C69D2A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86C245C-73D1-3043-91D7-16B29CA185A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27940" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
-    <sheet name="汇总-人读" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="汇总-人读" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>指标</t>
   </si>
@@ -156,12 +158,25 @@
     <t>数据相关</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>解除医学观察</t>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +234,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -258,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -284,6 +306,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U45" sqref="U45"/>
+      <selection pane="bottomRight" sqref="A1:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -575,11 +600,11 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="10" width="9.1640625" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="12" max="20" width="9.1640625" customWidth="1"/>
-    <col min="21" max="21" width="29.33203125" customWidth="1"/>
+    <col min="12" max="21" width="9.1640625" customWidth="1"/>
+    <col min="22" max="22" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="32">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="32">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -623,22 +648,25 @@
         <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>44255</v>
       </c>
@@ -646,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>44256</v>
@@ -673,13 +701,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>44257</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>44258</v>
@@ -709,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>44259</v>
@@ -745,7 +773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>44260</v>
@@ -775,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>44261</v>
@@ -810,11 +838,11 @@
       <c r="L8">
         <v>12</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>44262</v>
@@ -850,7 +878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>44263</v>
@@ -879,11 +907,11 @@
       <c r="L10">
         <v>19</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>44264</v>
@@ -915,11 +943,11 @@
       <c r="L11">
         <v>23</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>44265</v>
@@ -955,7 +983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>44266</v>
@@ -993,7 +1021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>44267</v>
@@ -1031,7 +1059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>44268</v>
@@ -1059,26 +1087,26 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>8985</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>8520</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>27548</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>27322</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>34</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>44269</v>
@@ -1116,7 +1144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>44270</v>
@@ -1157,7 +1185,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>44271</v>
@@ -1200,11 +1228,11 @@
       <c r="N18">
         <v>385</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>44272</v>
@@ -1245,7 +1273,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>44273</v>
@@ -1285,11 +1313,11 @@
       <c r="N20">
         <v>385</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>44274</v>
@@ -1332,11 +1360,11 @@
       <c r="N21">
         <v>395</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>44275</v>
@@ -1377,7 +1405,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>44276</v>
@@ -1421,7 +1449,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>44277</v>
@@ -1464,11 +1492,11 @@
       <c r="N24">
         <v>410</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>44278</v>
@@ -1511,11 +1539,11 @@
       <c r="N25">
         <v>437</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>44279</v>
@@ -1558,11 +1586,11 @@
       <c r="N26">
         <v>463</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>44280</v>
@@ -1608,11 +1636,11 @@
       <c r="N27">
         <v>476</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>44281</v>
@@ -1656,11 +1684,11 @@
       <c r="N28">
         <v>493</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>44282</v>
@@ -1704,11 +1732,11 @@
       <c r="N29">
         <v>511</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -1755,11 +1783,11 @@
       <c r="N30">
         <v>528</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:22">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>44284</v>
@@ -1807,7 +1835,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:22">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>44285</v>
@@ -1855,7 +1883,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:22">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>44286</v>
@@ -1903,7 +1931,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:22">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -1951,7 +1979,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:22">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>44288</v>
@@ -1999,7 +2027,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:22">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>44289</v>
@@ -2047,7 +2075,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:22">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>44290</v>
@@ -2095,7 +2123,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:22">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>44291</v>
@@ -2143,7 +2171,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:22">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>44292</v>
@@ -2191,7 +2219,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:22">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>44293</v>
@@ -2239,7 +2267,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:22">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>44294</v>
@@ -2287,7 +2315,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:22">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>44295</v>
@@ -2335,7 +2363,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:22">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>44296</v>
@@ -2383,7 +2411,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:22">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>44297</v>
@@ -2431,7 +2459,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:22">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>44298</v>
@@ -2481,23 +2509,23 @@
       <c r="O45">
         <v>9</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:22">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>44299</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:22">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>44300</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:22">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>44301</v>
@@ -2625,14 +2653,2131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540B493F-30EA-CF4F-8748-7AED4C324C4A}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="32">
+      <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="12">
+        <v>20220412</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1189</v>
+      </c>
+      <c r="C2" s="12">
+        <v>25141</v>
+      </c>
+      <c r="D2" s="12">
+        <v>23</v>
+      </c>
+      <c r="E2" s="12">
+        <v>867</v>
+      </c>
+      <c r="F2" s="12">
+        <v>24500</v>
+      </c>
+      <c r="G2" s="12">
+        <v>299</v>
+      </c>
+      <c r="H2" s="12">
+        <v>641</v>
+      </c>
+      <c r="I2" s="12">
+        <v>878</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1897</v>
+      </c>
+      <c r="K2" s="12">
+        <v>224691</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>7776</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2120</v>
+      </c>
+      <c r="O2" s="12">
+        <v>9</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="12">
+        <v>20220413</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2573</v>
+      </c>
+      <c r="C3" s="12">
+        <v>25146</v>
+      </c>
+      <c r="D3" s="12">
+        <v>114</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2200</v>
+      </c>
+      <c r="F3" s="12">
+        <v>24548</v>
+      </c>
+      <c r="G3" s="12">
+        <v>259</v>
+      </c>
+      <c r="H3" s="12">
+        <v>598</v>
+      </c>
+      <c r="I3" s="12">
+        <v>734</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1722</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>15406</v>
+      </c>
+      <c r="M3" s="12">
+        <v>9612</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2857</v>
+      </c>
+      <c r="O3" s="12">
+        <v>9</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="12">
+        <v>20220330</v>
+      </c>
+      <c r="B4" s="12">
+        <v>355</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5298</v>
+      </c>
+      <c r="D4" s="12">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4477</v>
+      </c>
+      <c r="G4" s="12">
+        <v>329</v>
+      </c>
+      <c r="H4" s="12">
+        <v>821</v>
+      </c>
+      <c r="I4" s="12">
+        <v>937</v>
+      </c>
+      <c r="J4" s="12">
+        <v>2433</v>
+      </c>
+      <c r="K4" s="12">
+        <v>28860</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>994</v>
+      </c>
+      <c r="N4" s="12">
+        <v>578</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="12">
+        <v>20220331</v>
+      </c>
+      <c r="B5" s="12">
+        <v>358</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4144</v>
+      </c>
+      <c r="D5" s="12">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12">
+        <v>8</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3710</v>
+      </c>
+      <c r="G5" s="12">
+        <v>330</v>
+      </c>
+      <c r="H5" s="12">
+        <v>434</v>
+      </c>
+      <c r="I5" s="12">
+        <v>956</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1287</v>
+      </c>
+      <c r="K5" s="12">
+        <v>32648</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1340</v>
+      </c>
+      <c r="N5" s="12">
+        <v>590</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="12">
+        <v>20220325</v>
+      </c>
+      <c r="B6" s="12">
+        <v>38</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2231</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1773</v>
+      </c>
+      <c r="G6" s="12">
+        <v>30</v>
+      </c>
+      <c r="H6" s="12">
+        <v>458</v>
+      </c>
+      <c r="I6" s="12">
+        <v>67</v>
+      </c>
+      <c r="J6" s="12">
+        <v>736</v>
+      </c>
+      <c r="K6" s="12">
+        <v>8674</v>
+      </c>
+      <c r="L6" s="12">
+        <v>102</v>
+      </c>
+      <c r="M6" s="12">
+        <v>224</v>
+      </c>
+      <c r="N6" s="12">
+        <v>476</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="12">
+        <v>20220407</v>
+      </c>
+      <c r="B7" s="12">
+        <v>824</v>
+      </c>
+      <c r="C7" s="12">
+        <v>20398</v>
+      </c>
+      <c r="D7" s="12">
+        <v>323</v>
+      </c>
+      <c r="E7" s="12">
+        <v>121</v>
+      </c>
+      <c r="F7" s="12">
+        <v>19798</v>
+      </c>
+      <c r="G7" s="12">
+        <v>380</v>
+      </c>
+      <c r="H7" s="12">
+        <v>600</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1105</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1736</v>
+      </c>
+      <c r="K7" s="12">
+        <v>120494</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>3989</v>
+      </c>
+      <c r="N7" s="12">
+        <v>789</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="12">
+        <v>20220409</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1006</v>
+      </c>
+      <c r="C8" s="12">
+        <v>23937</v>
+      </c>
+      <c r="D8" s="12">
+        <v>191</v>
+      </c>
+      <c r="E8" s="12">
+        <v>228</v>
+      </c>
+      <c r="F8" s="12">
+        <v>23412</v>
+      </c>
+      <c r="G8" s="12">
+        <v>587</v>
+      </c>
+      <c r="H8" s="12">
+        <v>525</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1733</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1525</v>
+      </c>
+      <c r="K8" s="12">
+        <v>165337</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>5683</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1116</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="12">
+        <v>20220408</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1015</v>
+      </c>
+      <c r="C9" s="12">
+        <v>22609</v>
+      </c>
+      <c r="D9" s="12">
+        <v>420</v>
+      </c>
+      <c r="E9" s="12">
+        <v>301</v>
+      </c>
+      <c r="F9" s="12">
+        <v>21853</v>
+      </c>
+      <c r="G9" s="12">
+        <v>294</v>
+      </c>
+      <c r="H9" s="12">
+        <v>756</v>
+      </c>
+      <c r="I9" s="12">
+        <v>835</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2254</v>
+      </c>
+      <c r="K9" s="12">
+        <v>141808</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>4894</v>
+      </c>
+      <c r="N9" s="12">
+        <v>899</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="12">
+        <v>20220406</v>
+      </c>
+      <c r="B10" s="12">
+        <v>322</v>
+      </c>
+      <c r="C10" s="12">
+        <v>19660</v>
+      </c>
+      <c r="D10" s="12">
+        <v>15</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12">
+        <v>19027</v>
+      </c>
+      <c r="G10" s="12">
+        <v>295</v>
+      </c>
+      <c r="H10" s="12">
+        <v>633</v>
+      </c>
+      <c r="I10" s="12">
+        <v>865</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1879</v>
+      </c>
+      <c r="K10" s="12">
+        <v>101116</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>3212</v>
+      </c>
+      <c r="N10" s="12">
+        <v>742</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="12">
+        <v>20220401</v>
+      </c>
+      <c r="B11" s="12">
+        <v>260</v>
+      </c>
+      <c r="C11" s="12">
+        <v>6051</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>8</v>
+      </c>
+      <c r="F11" s="12">
+        <v>5402</v>
+      </c>
+      <c r="G11" s="12">
+        <v>250</v>
+      </c>
+      <c r="H11" s="12">
+        <v>649</v>
+      </c>
+      <c r="I11" s="12">
+        <v>726</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1822</v>
+      </c>
+      <c r="K11" s="12">
+        <v>38162</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1577</v>
+      </c>
+      <c r="N11" s="12">
+        <v>613</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="12">
+        <v>20220411</v>
+      </c>
+      <c r="B12" s="12">
+        <v>994</v>
+      </c>
+      <c r="C12" s="12">
+        <v>22348</v>
+      </c>
+      <c r="D12" s="12">
+        <v>273</v>
+      </c>
+      <c r="E12" s="12">
+        <v>439</v>
+      </c>
+      <c r="F12" s="12">
+        <v>21844</v>
+      </c>
+      <c r="G12" s="12">
+        <v>282</v>
+      </c>
+      <c r="H12" s="12">
+        <v>504</v>
+      </c>
+      <c r="I12" s="12">
+        <v>836</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1487</v>
+      </c>
+      <c r="K12" s="12">
+        <v>205617</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>6921</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1786</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="12">
+        <v>20220410</v>
+      </c>
+      <c r="B13" s="12">
+        <v>914</v>
+      </c>
+      <c r="C13" s="12">
+        <v>25173</v>
+      </c>
+      <c r="D13" s="12">
+        <v>47</v>
+      </c>
+      <c r="E13" s="12">
+        <v>564</v>
+      </c>
+      <c r="F13" s="12">
+        <v>24230</v>
+      </c>
+      <c r="G13" s="12">
+        <v>303</v>
+      </c>
+      <c r="H13" s="12">
+        <v>943</v>
+      </c>
+      <c r="I13" s="12">
+        <v>895</v>
+      </c>
+      <c r="J13" s="12">
+        <v>2739</v>
+      </c>
+      <c r="K13" s="12">
+        <v>186992</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>6306</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1407</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="12">
+        <v>20220326</v>
+      </c>
+      <c r="B14" s="12">
+        <v>45</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2631</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>27</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2363</v>
+      </c>
+      <c r="G14" s="12">
+        <v>18</v>
+      </c>
+      <c r="H14" s="12">
+        <v>268</v>
+      </c>
+      <c r="I14" s="12">
+        <v>53</v>
+      </c>
+      <c r="J14" s="12">
+        <v>783</v>
+      </c>
+      <c r="K14" s="12">
+        <v>11095</v>
+      </c>
+      <c r="L14" s="12">
+        <v>210</v>
+      </c>
+      <c r="M14" s="12">
+        <v>252</v>
+      </c>
+      <c r="N14" s="12">
+        <v>493</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="12">
+        <v>20220329</v>
+      </c>
+      <c r="B15" s="12">
+        <v>326</v>
+      </c>
+      <c r="C15" s="12">
+        <v>5656</v>
+      </c>
+      <c r="D15" s="12">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12">
+        <v>17</v>
+      </c>
+      <c r="F15" s="12">
+        <v>5131</v>
+      </c>
+      <c r="G15" s="12">
+        <v>291</v>
+      </c>
+      <c r="H15" s="12">
+        <v>525</v>
+      </c>
+      <c r="I15" s="12">
+        <v>863</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1565</v>
+      </c>
+      <c r="K15" s="12">
+        <v>23896</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>659</v>
+      </c>
+      <c r="N15" s="12">
+        <v>558</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="12">
+        <v>20220327</v>
+      </c>
+      <c r="B16" s="12">
+        <v>50</v>
+      </c>
+      <c r="C16" s="12">
+        <v>3450</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>17</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2833</v>
+      </c>
+      <c r="G16" s="12">
+        <v>33</v>
+      </c>
+      <c r="H16" s="12">
+        <v>617</v>
+      </c>
+      <c r="I16" s="12">
+        <v>85</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1807</v>
+      </c>
+      <c r="K16" s="12">
+        <v>14376</v>
+      </c>
+      <c r="L16" s="12">
+        <v>169</v>
+      </c>
+      <c r="M16" s="12">
+        <v>284</v>
+      </c>
+      <c r="N16" s="12">
+        <v>511</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="12">
+        <v>20220404</v>
+      </c>
+      <c r="B17" s="12">
+        <v>268</v>
+      </c>
+      <c r="C17" s="12">
+        <v>13086</v>
+      </c>
+      <c r="D17" s="12">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12">
+        <v>12592</v>
+      </c>
+      <c r="G17" s="12">
+        <v>250</v>
+      </c>
+      <c r="H17" s="12">
+        <v>494</v>
+      </c>
+      <c r="I17" s="12">
+        <v>732</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1473</v>
+      </c>
+      <c r="K17" s="12">
+        <v>65958</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2641</v>
+      </c>
+      <c r="N17" s="12">
+        <v>680</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="12">
+        <v>20220403</v>
+      </c>
+      <c r="B18" s="12">
+        <v>425</v>
+      </c>
+      <c r="C18" s="12">
+        <v>8581</v>
+      </c>
+      <c r="D18" s="12">
+        <v>71</v>
+      </c>
+      <c r="E18" s="12">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12">
+        <v>7920</v>
+      </c>
+      <c r="G18" s="12">
+        <v>347</v>
+      </c>
+      <c r="H18" s="12">
+        <v>661</v>
+      </c>
+      <c r="I18" s="12">
+        <v>986</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1952</v>
+      </c>
+      <c r="K18" s="12">
+        <v>53418</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>2394</v>
+      </c>
+      <c r="N18" s="12">
+        <v>659</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="12">
+        <v>20220402</v>
+      </c>
+      <c r="B19" s="12">
+        <v>438</v>
+      </c>
+      <c r="C19" s="12">
+        <v>7788</v>
+      </c>
+      <c r="D19" s="12">
+        <v>73</v>
+      </c>
+      <c r="E19" s="12">
+        <v>16</v>
+      </c>
+      <c r="F19" s="12">
+        <v>6773</v>
+      </c>
+      <c r="G19" s="12">
+        <v>349</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1015</v>
+      </c>
+      <c r="I19" s="12">
+        <v>957</v>
+      </c>
+      <c r="J19" s="12">
+        <v>2987</v>
+      </c>
+      <c r="K19" s="12">
+        <v>45362</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1993</v>
+      </c>
+      <c r="N19" s="12">
+        <v>635</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="12">
+        <v>20220405</v>
+      </c>
+      <c r="B20" s="12">
+        <v>311</v>
+      </c>
+      <c r="C20" s="12">
+        <v>16766</v>
+      </c>
+      <c r="D20" s="12">
+        <v>40</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12">
+        <v>16256</v>
+      </c>
+      <c r="G20" s="12">
+        <v>267</v>
+      </c>
+      <c r="H20" s="12">
+        <v>510</v>
+      </c>
+      <c r="I20" s="12">
+        <v>775</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1521</v>
+      </c>
+      <c r="K20" s="12">
+        <v>82221</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>2922</v>
+      </c>
+      <c r="N20" s="12">
+        <v>710</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F63F8D-A6F6-3E46-94D7-087CA22FF9B0}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="32">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2">
+        <v>44255</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A29" si="0">A2+1</f>
+        <v>44256</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>78</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>44258</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>127</v>
+      </c>
+      <c r="J5">
+        <v>96</v>
+      </c>
+      <c r="K5">
+        <v>29</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>44259</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>55</v>
+      </c>
+      <c r="J6">
+        <v>71</v>
+      </c>
+      <c r="K6">
+        <v>45</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>44260</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>113</v>
+      </c>
+      <c r="K7">
+        <v>73</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>44261</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>118</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>44262</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>237</v>
+      </c>
+      <c r="K9">
+        <v>169</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>44263</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>231</v>
+      </c>
+      <c r="L10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>44264</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>64</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>54</v>
+      </c>
+      <c r="K11">
+        <v>306</v>
+      </c>
+      <c r="L11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>44265</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>370</v>
+      </c>
+      <c r="L12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>44266</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <f>B13-E13</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H29" si="1">C13-F13</f>
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>63</v>
+      </c>
+      <c r="K13">
+        <v>448</v>
+      </c>
+      <c r="L13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>44267</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <f>B14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>512</v>
+      </c>
+      <c r="L14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>44268</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G29" si="2">B15-D15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>44269</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>130</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>102</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>82</v>
+      </c>
+      <c r="K16">
+        <v>767</v>
+      </c>
+      <c r="L16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>44270</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>197</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>153</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>153</v>
+      </c>
+      <c r="K17">
+        <v>961</v>
+      </c>
+      <c r="L17">
+        <v>95</v>
+      </c>
+      <c r="N17">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>44271</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>69</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>242</v>
+      </c>
+      <c r="K18">
+        <v>1106</v>
+      </c>
+      <c r="L18">
+        <v>103</v>
+      </c>
+      <c r="N18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>44272</v>
+      </c>
+      <c r="B19">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>203</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>103</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>162</v>
+      </c>
+      <c r="J19">
+        <v>287</v>
+      </c>
+      <c r="K19">
+        <v>1297</v>
+      </c>
+      <c r="L19">
+        <v>160</v>
+      </c>
+      <c r="N19">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>44273</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>366</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>178</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>587</v>
+      </c>
+      <c r="K20">
+        <v>1657</v>
+      </c>
+      <c r="L20">
+        <v>168</v>
+      </c>
+      <c r="N20">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>44274</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>492</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>232</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>685</v>
+      </c>
+      <c r="K21">
+        <v>2099</v>
+      </c>
+      <c r="L21">
+        <v>175</v>
+      </c>
+      <c r="N21">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>44275</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>734</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>652</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>235</v>
+      </c>
+      <c r="K22">
+        <v>2793</v>
+      </c>
+      <c r="L22">
+        <v>198</v>
+      </c>
+      <c r="N22">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>44276</v>
+      </c>
+      <c r="B23">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>865</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>749</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>332</v>
+      </c>
+      <c r="K23">
+        <v>3505</v>
+      </c>
+      <c r="L23">
+        <v>221</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>44277</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>977</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>886</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>258</v>
+      </c>
+      <c r="K24">
+        <v>4408</v>
+      </c>
+      <c r="L24">
+        <v>219</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>410</v>
+      </c>
+      <c r="Q24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>44278</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>979</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>878</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>287</v>
+      </c>
+      <c r="K25">
+        <v>5107</v>
+      </c>
+      <c r="L25">
+        <v>196</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>437</v>
+      </c>
+      <c r="Q25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>44279</v>
+      </c>
+      <c r="B26">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>1580</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>1455</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="I26">
+        <v>45</v>
+      </c>
+      <c r="J26">
+        <v>367</v>
+      </c>
+      <c r="K26">
+        <v>6559</v>
+      </c>
+      <c r="L26">
+        <v>199</v>
+      </c>
+      <c r="M26">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>463</v>
+      </c>
+      <c r="Q26">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>44280</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>2231</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1773</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="I27">
+        <v>67</v>
+      </c>
+      <c r="J27">
+        <v>736</v>
+      </c>
+      <c r="K27">
+        <v>8674</v>
+      </c>
+      <c r="L27">
+        <v>224</v>
+      </c>
+      <c r="M27">
+        <v>13</v>
+      </c>
+      <c r="N27">
+        <v>476</v>
+      </c>
+      <c r="Q27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>44281</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>2631</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>2363</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="I28">
+        <v>53</v>
+      </c>
+      <c r="J28">
+        <v>783</v>
+      </c>
+      <c r="K28">
+        <v>11095</v>
+      </c>
+      <c r="L28">
+        <v>252</v>
+      </c>
+      <c r="M28">
+        <f>N28-N27</f>
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>493</v>
+      </c>
+      <c r="Q28">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>44282</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>3450</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>2833</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>617</v>
+      </c>
+      <c r="I29">
+        <v>85</v>
+      </c>
+      <c r="J29">
+        <v>1807</v>
+      </c>
+      <c r="K29">
+        <v>14376</v>
+      </c>
+      <c r="L29">
+        <v>284</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29" si="3">N29-N28</f>
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>511</v>
+      </c>
+      <c r="Q29">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
